--- a/ESLngonly.xlsx
+++ b/ESLngonly.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D1303C58-9DE3-4D79-B54E-3E790004A7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE5DA9E-F8F1-4200-A65B-8BDE8C03F8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9105" yWindow="-17160" windowWidth="24045" windowHeight="15885"/>
+    <workbookView xWindow="1095" yWindow="1605" windowWidth="24045" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trades List" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -951,16 +951,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1776"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
@@ -4341,7 +4341,7 @@
         <v>18</v>
       </c>
       <c r="C83" s="1">
-        <v>41564.416666666664</v>
+        <v>41564.420138888891</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>

--- a/ESLngonly.xlsx
+++ b/ESLngonly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE5DA9E-F8F1-4200-A65B-8BDE8C03F8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6869B478-1D59-4187-8BF7-0BC46366167D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="1605" windowWidth="24045" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,13 +954,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
@@ -4259,7 +4259,7 @@
         <v>18</v>
       </c>
       <c r="C81" s="1">
-        <v>41558.416666666664</v>
+        <v>41558.420138888891</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -4341,7 +4341,7 @@
         <v>18</v>
       </c>
       <c r="C83" s="1">
-        <v>41564.420138888891</v>
+        <v>41564.416666666664</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
